--- a/sp500-historical-components-and-changes/scraping_unique.xlsx
+++ b/sp500-historical-components-and-changes/scraping_unique.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yingchen\Documents\GitHub\analyzingalpha\sp500-historical-components-and-changes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B019F2-15B4-4F91-9183-8545015AB2E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18276" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="199">
   <si>
     <t>effective_date</t>
   </si>
@@ -28,6 +22,9 @@
     <t>ticker</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>variable</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>announcement_date</t>
   </si>
   <si>
@@ -157,30 +151,162 @@
     <t>JCI</t>
   </si>
   <si>
+    <t>COTY</t>
+  </si>
+  <si>
     <t>IDXX</t>
   </si>
   <si>
+    <t>DISH</t>
+  </si>
+  <si>
     <t>CSC</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>TGNA</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>ALGN</t>
+  </si>
+  <si>
+    <t>ANSS</t>
+  </si>
+  <si>
+    <t>YHOO</t>
+  </si>
+  <si>
+    <t>TDC</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
     <t>BHF</t>
   </si>
   <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>SPLS</t>
+  </si>
+  <si>
+    <t>NCLH</t>
+  </si>
+  <si>
+    <t>HII</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>SIVB</t>
+  </si>
+  <si>
+    <t>ABMD</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>GGP</t>
+  </si>
+  <si>
     <t>WCG</t>
   </si>
   <si>
     <t>XL</t>
   </si>
   <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>JKHY</t>
+  </si>
+  <si>
+    <t>EQT</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>MXIM</t>
+  </si>
+  <si>
+    <t>AET</t>
+  </si>
+  <si>
+    <t>ESRX</t>
+  </si>
+  <si>
+    <t>FRC</t>
+  </si>
+  <si>
+    <t>PCG</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>WAB</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
     <t>FOXAV;FOXBV</t>
   </si>
   <si>
     <t>FOXA;FOX</t>
   </si>
   <si>
+    <t>DOW</t>
+  </si>
+  <si>
     <t>FLR</t>
   </si>
   <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>MKTX</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>NVR</t>
+  </si>
+  <si>
+    <t>JEF</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>STE</t>
+  </si>
+  <si>
     <t>PAYC</t>
   </si>
   <si>
@@ -202,163 +328,286 @@
     <t>M</t>
   </si>
   <si>
+    <t>Willis Towers Watson</t>
+  </si>
+  <si>
+    <t>Fossil Group</t>
+  </si>
+  <si>
+    <t>Extra Space Storage</t>
+  </si>
+  <si>
+    <t>Chubb</t>
+  </si>
+  <si>
+    <t>Federal Realty Trust</t>
+  </si>
+  <si>
+    <t>Broadcom</t>
+  </si>
+  <si>
+    <t>Citizens Financial Group</t>
+  </si>
+  <si>
+    <t>Precision Castparts</t>
+  </si>
+  <si>
+    <t>Concho Resources</t>
+  </si>
+  <si>
+    <t>Plum Creek Timber</t>
+  </si>
+  <si>
+    <t>American Water Works</t>
+  </si>
+  <si>
+    <t>CONSOL Energy</t>
+  </si>
+  <si>
+    <t>Keurig Green Mountain</t>
+  </si>
+  <si>
+    <t>Foot Locker</t>
+  </si>
+  <si>
+    <t>Cameron International</t>
+  </si>
+  <si>
+    <t>Ulta Salon, Cosmetics &amp; Fragrances</t>
+  </si>
+  <si>
+    <t>Tenet Healthcare</t>
+  </si>
+  <si>
+    <t>Global Payments</t>
+  </si>
+  <si>
+    <t>GameStop</t>
+  </si>
+  <si>
+    <t>Alaska Air</t>
+  </si>
+  <si>
+    <t>SanDisk</t>
+  </si>
+  <si>
+    <t>Digital Realty Trust</t>
+  </si>
+  <si>
+    <t>Time Warner Cable</t>
+  </si>
+  <si>
+    <t>Airgas</t>
+  </si>
+  <si>
+    <t>Arthur J Gallagher &amp; Co.</t>
+  </si>
+  <si>
+    <t>Coca-Cola Enterprises</t>
+  </si>
+  <si>
+    <t>Fortune Brands Home &amp; Security</t>
+  </si>
+  <si>
+    <t>Cablevision Systems</t>
+  </si>
+  <si>
+    <t>Albemarle</t>
+  </si>
+  <si>
+    <t>Fortive</t>
+  </si>
+  <si>
+    <t>TECO Energy</t>
+  </si>
+  <si>
+    <t>Alliant Energy</t>
+  </si>
+  <si>
+    <t>AGL Resources</t>
+  </si>
+  <si>
+    <t>Mettler-Toledo</t>
+  </si>
+  <si>
+    <t>Johnson Controls</t>
+  </si>
+  <si>
+    <t>Coty</t>
+  </si>
+  <si>
+    <t>IDEXX</t>
+  </si>
+  <si>
+    <t>St. Jude</t>
+  </si>
+  <si>
+    <t>DISH Network</t>
+  </si>
+  <si>
+    <t>Computer Sciences</t>
+  </si>
+  <si>
+    <t>Gartner</t>
+  </si>
+  <si>
+    <t>IHS Markit</t>
+  </si>
+  <si>
+    <t>TEGNA</t>
+  </si>
+  <si>
+    <t>Hilton Worldwide</t>
+  </si>
+  <si>
+    <t>Align Technology</t>
+  </si>
+  <si>
+    <t>ANSYS</t>
+  </si>
+  <si>
+    <t>Yahoo!</t>
+  </si>
+  <si>
+    <t>Teradata</t>
+  </si>
+  <si>
+    <t>Ryder Systems</t>
+  </si>
+  <si>
+    <t>Everest Re</t>
+  </si>
+  <si>
+    <t>Brighthouse Financial</t>
+  </si>
+  <si>
+    <t>AutoNation</t>
+  </si>
+  <si>
+    <t>Quintiles IMS Holdings</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
+    <t>Norwegian Cruise Line</t>
+  </si>
+  <si>
+    <t>C.R. Bard</t>
+  </si>
+  <si>
+    <t>Take-Two Interactive Software</t>
+  </si>
+  <si>
+    <t>SVB Financial Group</t>
+  </si>
+  <si>
+    <t>ABIOMED</t>
+  </si>
+  <si>
+    <t>Dr Pepper Snapple</t>
+  </si>
+  <si>
+    <t>WellCare Health Plans</t>
+  </si>
+  <si>
+    <t>XL Group</t>
+  </si>
+  <si>
+    <t>Rollins</t>
+  </si>
+  <si>
+    <t>Jack Henry</t>
+  </si>
+  <si>
+    <t>Lamb Weston Holdings</t>
+  </si>
+  <si>
+    <t>Maxim Integrated Products</t>
+  </si>
+  <si>
+    <t>Aetna</t>
+  </si>
+  <si>
+    <t>Express Scripts Holding</t>
+  </si>
+  <si>
+    <t>First Republic</t>
+  </si>
+  <si>
+    <t>PG&amp;E</t>
+  </si>
+  <si>
+    <t>Atmos Energy</t>
+  </si>
+  <si>
+    <t>Wabtec</t>
+  </si>
+  <si>
+    <t>Goodyear Tire &amp; Rubber</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Twenty-First Century Fox</t>
+  </si>
+  <si>
+    <t>Dow</t>
+  </si>
+  <si>
+    <t>Fluor</t>
+  </si>
+  <si>
+    <t>Bemis</t>
+  </si>
+  <si>
+    <t>Mattel</t>
+  </si>
+  <si>
+    <t>MarketAxess Holdings</t>
+  </si>
+  <si>
+    <t>L3 Technologies</t>
+  </si>
+  <si>
+    <t>IDEX</t>
+  </si>
+  <si>
+    <t>Jefferies Financial Group</t>
+  </si>
+  <si>
+    <t>W.R. Berkley</t>
+  </si>
+  <si>
+    <t>STERIS</t>
+  </si>
+  <si>
+    <t>Paycom Software</t>
+  </si>
+  <si>
+    <t>Gardner Denver</t>
+  </si>
+  <si>
+    <t>Cimarex Energy</t>
+  </si>
+  <si>
+    <t>Otis Worldwide</t>
+  </si>
+  <si>
+    <t>Carrier Global</t>
+  </si>
+  <si>
+    <t>Raytheon</t>
+  </si>
+  <si>
+    <t>Macy’s</t>
+  </si>
+  <si>
     <t>ADDED</t>
   </si>
   <si>
     <t>DELETED</t>
-  </si>
-  <si>
-    <t>Willis Towers Watson</t>
-  </si>
-  <si>
-    <t>Fossil Group</t>
-  </si>
-  <si>
-    <t>Extra Space Storage</t>
-  </si>
-  <si>
-    <t>Chubb</t>
-  </si>
-  <si>
-    <t>Federal Realty Trust</t>
-  </si>
-  <si>
-    <t>Broadcom</t>
-  </si>
-  <si>
-    <t>Citizens Financial Group</t>
-  </si>
-  <si>
-    <t>Precision Castparts</t>
-  </si>
-  <si>
-    <t>Concho Resources</t>
-  </si>
-  <si>
-    <t>Plum Creek Timber</t>
-  </si>
-  <si>
-    <t>American Water Works</t>
-  </si>
-  <si>
-    <t>CONSOL Energy</t>
-  </si>
-  <si>
-    <t>Keurig Green Mountain</t>
-  </si>
-  <si>
-    <t>Foot Locker</t>
-  </si>
-  <si>
-    <t>Cameron International</t>
-  </si>
-  <si>
-    <t>Ulta Salon, Cosmetics &amp; Fragrances</t>
-  </si>
-  <si>
-    <t>Tenet Healthcare</t>
-  </si>
-  <si>
-    <t>Global Payments</t>
-  </si>
-  <si>
-    <t>GameStop</t>
-  </si>
-  <si>
-    <t>Alaska Air</t>
-  </si>
-  <si>
-    <t>SanDisk</t>
-  </si>
-  <si>
-    <t>Digital Realty Trust</t>
-  </si>
-  <si>
-    <t>Time Warner Cable</t>
-  </si>
-  <si>
-    <t>Airgas</t>
-  </si>
-  <si>
-    <t>Arthur J Gallagher &amp; Co.</t>
-  </si>
-  <si>
-    <t>Coca-Cola Enterprises</t>
-  </si>
-  <si>
-    <t>Fortune Brands Home &amp; Security</t>
-  </si>
-  <si>
-    <t>Cablevision Systems</t>
-  </si>
-  <si>
-    <t>Albemarle</t>
-  </si>
-  <si>
-    <t>Fortive</t>
-  </si>
-  <si>
-    <t>TECO Energy</t>
-  </si>
-  <si>
-    <t>Alliant Energy</t>
-  </si>
-  <si>
-    <t>AGL Resources</t>
-  </si>
-  <si>
-    <t>Mettler-Toledo</t>
-  </si>
-  <si>
-    <t>Johnson Controls</t>
-  </si>
-  <si>
-    <t>IDEXX</t>
-  </si>
-  <si>
-    <t>St. Jude</t>
-  </si>
-  <si>
-    <t>Computer Sciences</t>
-  </si>
-  <si>
-    <t>Brighthouse Financial</t>
-  </si>
-  <si>
-    <t>WellCare Health Plans</t>
-  </si>
-  <si>
-    <t>XL Group</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
-    <t>Twenty-First Century Fox</t>
-  </si>
-  <si>
-    <t>Fluor</t>
-  </si>
-  <si>
-    <t>Paycom Software</t>
-  </si>
-  <si>
-    <t>Gardner Denver</t>
-  </si>
-  <si>
-    <t>Cimarex Energy</t>
-  </si>
-  <si>
-    <t>Otis Worldwide</t>
-  </si>
-  <si>
-    <t>Carrier Global</t>
-  </si>
-  <si>
-    <t>Raytheon</t>
-  </si>
-  <si>
-    <t>Macy’s</t>
   </si>
   <si>
     <t>right_only</t>
@@ -367,11 +616,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,14 +684,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -489,7 +730,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,27 +762,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,24 +796,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -766,20 +971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,9 +1004,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2">
         <v>42373</v>
@@ -815,25 +1014,25 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="H2" s="2">
         <v>42366</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B3" s="2">
         <v>42373</v>
@@ -841,25 +1040,25 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="H3" s="2">
         <v>42366</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B4" s="2">
         <v>42384</v>
@@ -867,25 +1066,25 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="H4" s="2">
         <v>42382</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B5" s="2">
         <v>42384</v>
@@ -893,25 +1092,25 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="H5" s="2">
         <v>42382</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6" s="2">
         <v>42398</v>
@@ -919,25 +1118,25 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="H6" s="2">
         <v>42391</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B7" s="2">
         <v>42398</v>
@@ -945,25 +1144,25 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="H7" s="2">
         <v>42391</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B8" s="2">
         <v>42398</v>
@@ -971,25 +1170,25 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="H8" s="2">
         <v>42395</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B9" s="2">
         <v>42398</v>
@@ -997,25 +1196,25 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9">
         <v>49</v>
       </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="H9" s="2">
         <v>42395</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B10" s="2">
         <v>42419</v>
@@ -1023,25 +1222,25 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="H10" s="2">
         <v>42416</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B11" s="2">
         <v>42419</v>
@@ -1049,25 +1248,25 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11">
         <v>51</v>
       </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="H11" s="2">
         <v>42416</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B12" s="2">
         <v>42432</v>
@@ -1075,25 +1274,25 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="H12" s="2">
         <v>42430</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B13" s="2">
         <v>42432</v>
@@ -1101,25 +1300,25 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="E13">
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="H13" s="2">
         <v>42430</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B14" s="2">
         <v>42433</v>
@@ -1127,25 +1326,25 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
         <v>54</v>
       </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="H14" s="2">
         <v>42432</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B15" s="2">
         <v>42433</v>
@@ -1153,25 +1352,25 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="E15">
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15">
         <v>55</v>
       </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="H15" s="2">
         <v>42432</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B16" s="2">
         <v>42461</v>
@@ -1179,25 +1378,25 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="H16" s="2">
         <v>42457</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B17" s="2">
         <v>42461</v>
@@ -1205,25 +1404,25 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17">
         <v>57</v>
       </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="H17" s="2">
         <v>42457</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B18" s="2">
         <v>42475</v>
@@ -1231,25 +1430,25 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="E18">
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18">
         <v>58</v>
       </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="H18" s="2">
         <v>42467</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2">
         <v>42475</v>
@@ -1257,25 +1456,25 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="H19" s="2">
         <v>42467</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2">
         <v>42482</v>
@@ -1283,25 +1482,25 @@
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="E20">
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="H20" s="2">
         <v>42479</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2">
         <v>42482</v>
@@ -1309,25 +1508,25 @@
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21">
         <v>61</v>
       </c>
-      <c r="F21" t="s">
-        <v>61</v>
-      </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="H21" s="2">
         <v>42479</v>
       </c>
       <c r="I21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2">
         <v>42502</v>
@@ -1335,25 +1534,25 @@
       <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22">
         <v>62</v>
       </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="H22" s="2">
         <v>42500</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2">
         <v>42502</v>
@@ -1361,25 +1560,25 @@
       <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23">
         <v>63</v>
       </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="H23" s="2">
         <v>42500</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2">
         <v>42507</v>
@@ -1387,25 +1586,25 @@
       <c r="C24" t="s">
         <v>30</v>
       </c>
-      <c r="E24">
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="H24" s="2">
         <v>42503</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2">
         <v>42507</v>
@@ -1413,25 +1612,25 @@
       <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="E25">
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25">
         <v>65</v>
       </c>
-      <c r="F25" t="s">
-        <v>61</v>
-      </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="H25" s="2">
         <v>42503</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2">
         <v>42510</v>
@@ -1439,25 +1638,25 @@
       <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="E26">
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26">
         <v>66</v>
       </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="H26" s="2">
         <v>42508</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2">
         <v>42510</v>
@@ -1465,25 +1664,25 @@
       <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="E27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
         <v>67</v>
       </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="H27" s="2">
         <v>42508</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2">
         <v>42517</v>
@@ -1491,25 +1690,25 @@
       <c r="C28" t="s">
         <v>34</v>
       </c>
-      <c r="E28">
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28">
         <v>68</v>
       </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="H28" s="2">
         <v>42514</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2">
         <v>42517</v>
@@ -1517,25 +1716,25 @@
       <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="E29">
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29">
         <v>69</v>
       </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="H29" s="2">
         <v>42514</v>
       </c>
       <c r="I29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2">
         <v>42544</v>
@@ -1543,25 +1742,25 @@
       <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="E30">
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30">
         <v>70</v>
       </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="H30" s="2">
         <v>42542</v>
       </c>
       <c r="I30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2">
         <v>42544</v>
@@ -1569,25 +1768,25 @@
       <c r="C31" t="s">
         <v>37</v>
       </c>
-      <c r="E31">
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31">
         <v>71</v>
       </c>
-      <c r="F31" t="s">
-        <v>61</v>
-      </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="H31" s="2">
         <v>42542</v>
       </c>
       <c r="I31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2">
         <v>42551</v>
@@ -1595,25 +1794,25 @@
       <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="E32">
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32">
         <v>72</v>
       </c>
-      <c r="F32" t="s">
-        <v>60</v>
-      </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="H32" s="2">
         <v>42544</v>
       </c>
       <c r="I32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2">
         <v>42552</v>
@@ -1621,25 +1820,25 @@
       <c r="C33" t="s">
         <v>39</v>
       </c>
-      <c r="E33">
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33">
         <v>74</v>
       </c>
-      <c r="F33" t="s">
-        <v>60</v>
-      </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="H33" s="2">
         <v>42544</v>
       </c>
       <c r="I33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B34" s="2">
         <v>42551</v>
@@ -1647,25 +1846,25 @@
       <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="E34">
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34">
         <v>73</v>
       </c>
-      <c r="F34" t="s">
-        <v>61</v>
-      </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="H34" s="2">
         <v>42544</v>
       </c>
       <c r="I34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B35" s="2">
         <v>42551</v>
@@ -1673,25 +1872,25 @@
       <c r="C35" t="s">
         <v>41</v>
       </c>
-      <c r="E35">
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35">
         <v>76</v>
       </c>
-      <c r="F35" t="s">
-        <v>60</v>
-      </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="H35" s="2">
         <v>42550</v>
       </c>
       <c r="I35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B36" s="2">
         <v>42551</v>
@@ -1699,25 +1898,25 @@
       <c r="C36" t="s">
         <v>42</v>
       </c>
-      <c r="E36">
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36">
         <v>77</v>
       </c>
-      <c r="F36" t="s">
-        <v>61</v>
-      </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="H36" s="2">
         <v>42550</v>
       </c>
       <c r="I36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2">
         <v>42615</v>
@@ -1725,25 +1924,25 @@
       <c r="C37" t="s">
         <v>43</v>
       </c>
-      <c r="E37">
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37">
         <v>78</v>
       </c>
-      <c r="F37" t="s">
-        <v>60</v>
-      </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="H37" s="2">
         <v>42607</v>
       </c>
       <c r="I37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B38" s="2">
         <v>42615</v>
@@ -1751,488 +1950,1684 @@
       <c r="C38" t="s">
         <v>44</v>
       </c>
-      <c r="E38">
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38">
         <v>79</v>
       </c>
-      <c r="F38" t="s">
-        <v>61</v>
-      </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="H38" s="2">
         <v>42607</v>
       </c>
       <c r="I38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B39" s="2">
-        <v>42739</v>
+        <v>42643</v>
       </c>
       <c r="C39" t="s">
         <v>45</v>
       </c>
-      <c r="E39">
-        <v>82</v>
-      </c>
-      <c r="F39" t="s">
-        <v>60</v>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39">
+        <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="H39" s="2">
-        <v>42738</v>
+        <v>42640</v>
       </c>
       <c r="I39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B40" s="2">
         <v>42739</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40">
-        <v>83</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40">
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="H40" s="2">
         <v>42738</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B41" s="2">
-        <v>42829</v>
+        <v>42739</v>
       </c>
       <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="E41">
-        <v>86</v>
-      </c>
-      <c r="F41" t="s">
-        <v>60</v>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41">
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="H41" s="2">
-        <v>42822</v>
+        <v>42738</v>
       </c>
       <c r="I41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B42" s="2">
-        <v>42954</v>
+        <v>42807</v>
       </c>
       <c r="C42" t="s">
         <v>47</v>
       </c>
-      <c r="E42">
-        <v>100</v>
-      </c>
-      <c r="F42" t="s">
-        <v>60</v>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42">
+        <v>84</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="H42" s="2">
-        <v>42947</v>
+        <v>42800</v>
       </c>
       <c r="I42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B43" s="2">
-        <v>43360</v>
+        <v>42829</v>
       </c>
       <c r="C43" t="s">
         <v>48</v>
       </c>
-      <c r="E43">
-        <v>140</v>
-      </c>
-      <c r="F43" t="s">
-        <v>60</v>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43">
+        <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="H43" s="2">
-        <v>43354</v>
+        <v>42822</v>
       </c>
       <c r="I43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B44" s="2">
-        <v>43360</v>
+        <v>42830</v>
       </c>
       <c r="C44" t="s">
         <v>49</v>
       </c>
-      <c r="E44">
-        <v>141</v>
-      </c>
-      <c r="F44" t="s">
-        <v>61</v>
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44">
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="H44" s="2">
-        <v>43354</v>
+        <v>42823</v>
       </c>
       <c r="I44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B45" s="2">
-        <v>43543</v>
+        <v>42888</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
       </c>
-      <c r="E45">
-        <v>166</v>
-      </c>
-      <c r="F45" t="s">
-        <v>60</v>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45">
+        <v>90</v>
       </c>
       <c r="G45" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="H45" s="2">
-        <v>43538</v>
+        <v>42879</v>
       </c>
       <c r="I45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B46" s="2">
-        <v>43544</v>
+        <v>42888</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
       </c>
-      <c r="E46">
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46">
+        <v>91</v>
+      </c>
+      <c r="G46" t="s">
+        <v>197</v>
+      </c>
+      <c r="H46" s="2">
+        <v>42879</v>
+      </c>
+      <c r="I46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>241</v>
+      </c>
+      <c r="B47" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47">
+        <v>92</v>
+      </c>
+      <c r="G47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" s="2">
+        <v>42895</v>
+      </c>
+      <c r="I47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>242</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48">
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="2">
+        <v>42895</v>
+      </c>
+      <c r="I48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>243</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49">
+        <v>94</v>
+      </c>
+      <c r="G49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="2">
+        <v>42895</v>
+      </c>
+      <c r="I49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>244</v>
+      </c>
+      <c r="B50" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50">
+        <v>95</v>
+      </c>
+      <c r="G50" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="2">
+        <v>42895</v>
+      </c>
+      <c r="I50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>245</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51">
+        <v>96</v>
+      </c>
+      <c r="G51" t="s">
+        <v>197</v>
+      </c>
+      <c r="H51" s="2">
+        <v>42895</v>
+      </c>
+      <c r="I51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>246</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52">
+        <v>97</v>
+      </c>
+      <c r="G52" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" s="2">
+        <v>42895</v>
+      </c>
+      <c r="I52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>247</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53">
+        <v>98</v>
+      </c>
+      <c r="G53" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" s="2">
+        <v>42898</v>
+      </c>
+      <c r="I53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>248</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42954</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" s="2">
+        <v>42947</v>
+      </c>
+      <c r="I54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>249</v>
+      </c>
+      <c r="B55" s="2">
+        <v>42955</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55">
+        <v>101</v>
+      </c>
+      <c r="G55" t="s">
+        <v>197</v>
+      </c>
+      <c r="H55" s="2">
+        <v>42947</v>
+      </c>
+      <c r="I55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>250</v>
+      </c>
+      <c r="B56" s="2">
+        <v>42976</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56">
+        <v>102</v>
+      </c>
+      <c r="G56" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" s="2">
+        <v>42971</v>
+      </c>
+      <c r="I56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>251</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42996</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57">
+        <v>107</v>
+      </c>
+      <c r="G57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="2">
+        <v>42986</v>
+      </c>
+      <c r="I57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>252</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43021</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58">
+        <v>108</v>
+      </c>
+      <c r="G58" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" s="2">
+        <v>43012</v>
+      </c>
+      <c r="I58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>253</v>
+      </c>
+      <c r="B59" s="2">
+        <v>43103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>197</v>
+      </c>
+      <c r="H59" s="2">
+        <v>43097</v>
+      </c>
+      <c r="I59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>254</v>
+      </c>
+      <c r="B60" s="2">
+        <v>43178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60">
+        <v>120</v>
+      </c>
+      <c r="G60" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="2">
+        <v>43168</v>
+      </c>
+      <c r="I60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>255</v>
+      </c>
+      <c r="B61" s="2">
+        <v>43178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61">
+        <v>121</v>
+      </c>
+      <c r="G61" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" s="2">
+        <v>43168</v>
+      </c>
+      <c r="I61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>256</v>
+      </c>
+      <c r="B62" s="2">
+        <v>43251</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62">
+        <v>126</v>
+      </c>
+      <c r="G62" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" s="2">
+        <v>43245</v>
+      </c>
+      <c r="I62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>257</v>
+      </c>
+      <c r="B63" s="2">
+        <v>43283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+      <c r="F63">
+        <v>137</v>
+      </c>
+      <c r="G63" t="s">
+        <v>197</v>
+      </c>
+      <c r="H63" s="2">
+        <v>43276</v>
+      </c>
+      <c r="I63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>258</v>
+      </c>
+      <c r="B64" s="2">
+        <v>43340</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64">
+        <v>139</v>
+      </c>
+      <c r="G64" t="s">
+        <v>197</v>
+      </c>
+      <c r="H64" s="2">
+        <v>43335</v>
+      </c>
+      <c r="I64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>259</v>
+      </c>
+      <c r="B65" s="2">
+        <v>43340</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65">
+        <v>187</v>
+      </c>
+      <c r="G65" t="s">
+        <v>197</v>
+      </c>
+      <c r="H65" s="2">
+        <v>43335</v>
+      </c>
+      <c r="I65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>260</v>
+      </c>
+      <c r="B66" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66">
+        <v>140</v>
+      </c>
+      <c r="G66" t="s">
+        <v>196</v>
+      </c>
+      <c r="H66" s="2">
+        <v>43354</v>
+      </c>
+      <c r="I66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>261</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43360</v>
+      </c>
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67">
+        <v>141</v>
+      </c>
+      <c r="G67" t="s">
+        <v>197</v>
+      </c>
+      <c r="H67" s="2">
+        <v>43354</v>
+      </c>
+      <c r="I67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>262</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68">
+        <v>142</v>
+      </c>
+      <c r="G68" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" s="2">
+        <v>43368</v>
+      </c>
+      <c r="I68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>263</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43410</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69">
+        <v>147</v>
+      </c>
+      <c r="G69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H69" s="2">
+        <v>43403</v>
+      </c>
+      <c r="I69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>264</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43417</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
         <v>167</v>
       </c>
-      <c r="F46" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" t="s">
-        <v>104</v>
-      </c>
-      <c r="H46" s="2">
+      <c r="F70">
+        <v>148</v>
+      </c>
+      <c r="G70" t="s">
+        <v>196</v>
+      </c>
+      <c r="H70" s="2">
+        <v>43411</v>
+      </c>
+      <c r="I70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>265</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43417</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71">
+        <v>149</v>
+      </c>
+      <c r="G71" t="s">
+        <v>197</v>
+      </c>
+      <c r="H71" s="2">
+        <v>43411</v>
+      </c>
+      <c r="I71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>266</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43437</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72">
+        <v>150</v>
+      </c>
+      <c r="G72" t="s">
+        <v>196</v>
+      </c>
+      <c r="H72" s="2">
+        <v>43430</v>
+      </c>
+      <c r="I72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>267</v>
+      </c>
+      <c r="B73" s="2">
+        <v>43437</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73">
+        <v>151</v>
+      </c>
+      <c r="G73" t="s">
+        <v>196</v>
+      </c>
+      <c r="H73" s="2">
+        <v>43430</v>
+      </c>
+      <c r="I73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>268</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43437</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74">
+        <v>154</v>
+      </c>
+      <c r="G74" t="s">
+        <v>197</v>
+      </c>
+      <c r="H74" s="2">
+        <v>43430</v>
+      </c>
+      <c r="I74" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>269</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43458</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75">
+        <v>157</v>
+      </c>
+      <c r="G75" t="s">
+        <v>197</v>
+      </c>
+      <c r="H75" s="2">
+        <v>43453</v>
+      </c>
+      <c r="I75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>270</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43467</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76">
+        <v>158</v>
+      </c>
+      <c r="G76" t="s">
+        <v>196</v>
+      </c>
+      <c r="H76" s="2">
+        <v>43461</v>
+      </c>
+      <c r="I76" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>271</v>
+      </c>
+      <c r="B77" s="2">
+        <v>43483</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77">
+        <v>161</v>
+      </c>
+      <c r="G77" t="s">
+        <v>197</v>
+      </c>
+      <c r="H77" s="2">
+        <v>43480</v>
+      </c>
+      <c r="I77" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>272</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43511</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78">
+        <v>162</v>
+      </c>
+      <c r="G78" t="s">
+        <v>196</v>
+      </c>
+      <c r="H78" s="2">
+        <v>43504</v>
+      </c>
+      <c r="I78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>273</v>
+      </c>
+      <c r="B79" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>175</v>
+      </c>
+      <c r="F79">
+        <v>164</v>
+      </c>
+      <c r="G79" t="s">
+        <v>196</v>
+      </c>
+      <c r="H79" s="2">
+        <v>43517</v>
+      </c>
+      <c r="I79" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>274</v>
+      </c>
+      <c r="B80" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80">
+        <v>165</v>
+      </c>
+      <c r="G80" t="s">
+        <v>197</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43517</v>
+      </c>
+      <c r="I80" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>275</v>
+      </c>
+      <c r="B81" s="2">
+        <v>43543</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81">
+        <v>166</v>
+      </c>
+      <c r="G81" t="s">
+        <v>196</v>
+      </c>
+      <c r="H81" s="2">
         <v>43538</v>
       </c>
-      <c r="I46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1">
-        <v>244</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="I81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>276</v>
+      </c>
+      <c r="B82" s="2">
+        <v>43544</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82">
+        <v>167</v>
+      </c>
+      <c r="G82" t="s">
+        <v>197</v>
+      </c>
+      <c r="H82" s="2">
+        <v>43538</v>
+      </c>
+      <c r="I82" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>277</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43557</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83">
+        <v>168</v>
+      </c>
+      <c r="G83" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83" s="2">
+        <v>43550</v>
+      </c>
+      <c r="I83" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>278</v>
+      </c>
+      <c r="B84" s="2">
         <v>43558</v>
       </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47">
+      <c r="C84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84">
         <v>169</v>
       </c>
-      <c r="F47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="G84" t="s">
+        <v>197</v>
+      </c>
+      <c r="H84" s="2">
+        <v>43550</v>
+      </c>
+      <c r="I84" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>279</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43620</v>
+      </c>
+      <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" t="s">
+        <v>180</v>
+      </c>
+      <c r="F85">
+        <v>171</v>
+      </c>
+      <c r="G85" t="s">
+        <v>197</v>
+      </c>
+      <c r="H85" s="2">
+        <v>43613</v>
+      </c>
+      <c r="I85" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>280</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43623</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" t="s">
+        <v>181</v>
+      </c>
+      <c r="F86">
+        <v>172</v>
+      </c>
+      <c r="G86" t="s">
+        <v>196</v>
+      </c>
+      <c r="H86" s="2">
+        <v>43619</v>
+      </c>
+      <c r="I86" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>281</v>
+      </c>
+      <c r="B87" s="2">
+        <v>43623</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" t="s">
+        <v>182</v>
+      </c>
+      <c r="F87">
+        <v>173</v>
+      </c>
+      <c r="G87" t="s">
+        <v>197</v>
+      </c>
+      <c r="H87" s="2">
+        <v>43619</v>
+      </c>
+      <c r="I87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>282</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88">
+        <v>174</v>
+      </c>
+      <c r="G88" t="s">
+        <v>196</v>
+      </c>
+      <c r="H88" s="2">
+        <v>43640</v>
+      </c>
+      <c r="I88" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>283</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89">
+        <v>175</v>
+      </c>
+      <c r="G89" t="s">
+        <v>197</v>
+      </c>
+      <c r="H89" s="2">
+        <v>43640</v>
+      </c>
+      <c r="I89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>284</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43686</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" t="s">
+        <v>185</v>
+      </c>
+      <c r="F90">
+        <v>179</v>
+      </c>
+      <c r="G90" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90" s="2">
+        <v>43678</v>
+      </c>
+      <c r="I90" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>285</v>
+      </c>
+      <c r="B91" s="2">
+        <v>43734</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>196</v>
+      </c>
+      <c r="H91" s="2">
+        <v>43728</v>
+      </c>
+      <c r="I91" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>286</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43734</v>
+      </c>
+      <c r="C92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" t="s">
+        <v>186</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>197</v>
+      </c>
+      <c r="H92" s="2">
+        <v>43728</v>
+      </c>
+      <c r="I92" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>287</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43804</v>
+      </c>
+      <c r="C93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" t="s">
+        <v>187</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>196</v>
+      </c>
+      <c r="H93" s="2">
+        <v>43796</v>
+      </c>
+      <c r="I93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>288</v>
+      </c>
+      <c r="B94" s="2">
+        <v>43822</v>
+      </c>
+      <c r="C94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" t="s">
+        <v>188</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>196</v>
+      </c>
+      <c r="H94" s="2">
+        <v>43812</v>
+      </c>
+      <c r="I94" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>289</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43858</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" t="s">
+        <v>189</v>
+      </c>
+      <c r="F95">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>196</v>
+      </c>
+      <c r="H95" s="2">
+        <v>43852</v>
+      </c>
+      <c r="I95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>290</v>
+      </c>
+      <c r="B96" s="2">
+        <v>43858</v>
+      </c>
+      <c r="C96" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" t="s">
+        <v>164</v>
+      </c>
+      <c r="F96">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>197</v>
+      </c>
+      <c r="H96" s="2">
+        <v>43852</v>
+      </c>
+      <c r="I96" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>291</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43893</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>196</v>
+      </c>
+      <c r="H97" s="2">
+        <v>43888</v>
+      </c>
+      <c r="I97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>292</v>
+      </c>
+      <c r="B98" s="2">
+        <v>43893</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>197</v>
+      </c>
+      <c r="H98" s="2">
+        <v>43888</v>
+      </c>
+      <c r="I98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>293</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C99" t="s">
         <v>100</v>
       </c>
-      <c r="H47" s="2">
-        <v>43550</v>
-      </c>
-      <c r="I47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1">
-        <v>245</v>
-      </c>
-      <c r="B48" s="2">
-        <v>43620</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48">
-        <v>171</v>
-      </c>
-      <c r="F48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="2">
-        <v>43613</v>
-      </c>
-      <c r="I48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1">
-        <v>246</v>
-      </c>
-      <c r="B49" s="2">
-        <v>43858</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" t="s">
-        <v>106</v>
-      </c>
-      <c r="H49" s="2">
-        <v>43852</v>
-      </c>
-      <c r="I49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1">
-        <v>247</v>
-      </c>
-      <c r="B50" s="2">
-        <v>43858</v>
-      </c>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50">
-        <v>15</v>
-      </c>
-      <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="D99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s">
+        <v>196</v>
+      </c>
+      <c r="H99" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>294</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C100" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="2">
-        <v>43852</v>
-      </c>
-      <c r="I50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1">
-        <v>248</v>
-      </c>
-      <c r="B51" s="2">
-        <v>43893</v>
-      </c>
-      <c r="C51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="2">
-        <v>43888</v>
-      </c>
-      <c r="I51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1">
-        <v>249</v>
-      </c>
-      <c r="B52" s="2">
-        <v>43893</v>
-      </c>
-      <c r="C52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52">
-        <v>17</v>
-      </c>
-      <c r="F52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" t="s">
-        <v>108</v>
-      </c>
-      <c r="H52" s="2">
-        <v>43888</v>
-      </c>
-      <c r="I52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1">
-        <v>250</v>
-      </c>
-      <c r="B53" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53">
-        <v>18</v>
-      </c>
-      <c r="F53" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="D100" t="s">
+        <v>193</v>
+      </c>
+      <c r="F100">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
+        <v>196</v>
+      </c>
+      <c r="H100" s="2">
         <v>43921</v>
       </c>
-      <c r="I53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1">
-        <v>251</v>
-      </c>
-      <c r="B54" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" t="s">
-        <v>110</v>
-      </c>
-      <c r="H54" s="2">
+      <c r="I100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>295</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>197</v>
+      </c>
+      <c r="H101" s="2">
         <v>43921</v>
       </c>
-      <c r="I54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1">
-        <v>252</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="I101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>296</v>
+      </c>
+      <c r="B102" s="2">
         <v>43927</v>
       </c>
-      <c r="C55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55">
-        <v>20</v>
-      </c>
-      <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" t="s">
-        <v>111</v>
-      </c>
-      <c r="H55" s="2">
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" t="s">
+        <v>195</v>
+      </c>
+      <c r="F102">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>197</v>
+      </c>
+      <c r="H102" s="2">
         <v>43921</v>
       </c>
-      <c r="I55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1">
-        <v>253</v>
-      </c>
-      <c r="B56" s="2">
-        <v>43927</v>
-      </c>
-      <c r="C56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56">
-        <v>21</v>
-      </c>
-      <c r="F56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" t="s">
-        <v>112</v>
-      </c>
-      <c r="H56" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I56" t="s">
-        <v>113</v>
+      <c r="I102" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
